--- a/NOTE.XLSX
+++ b/NOTE.XLSX
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LEARNING\Html-Css\html-css-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LEARNING\HTML_CSS\html-css-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8F1B8F-0476-47FA-9249-F855FE86B298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39EDA9-5934-4AC5-AD68-406510F1EF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="html css template web" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,16 +26,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>https://www.codeply.com/go/7XYosZ7VH5</t>
+  </si>
+  <si>
+    <t>https://css-tricks.com/almanac/properties/w/width/</t>
+  </si>
+  <si>
+    <t>https://undraw.co/illustrations</t>
+  </si>
+  <si>
+    <t>https://www.drawkit.io/product/watermelon</t>
+  </si>
+  <si>
+    <t>https://themehunt.com/</t>
+  </si>
+  <si>
+    <t>https://www.drawkit.io/product/fashion-illustrations</t>
+  </si>
+  <si>
+    <t>https://themewagon.com/theme_tag/free/</t>
+  </si>
+  <si>
+    <t>https://bootstrapmade.com/</t>
+  </si>
+  <si>
+    <t>https://vincentgarreau.com/particles.js</t>
+  </si>
+  <si>
+    <t>https://cssgradient.io/</t>
+  </si>
+  <si>
+    <t>https://getwaves.io/</t>
+  </si>
+  <si>
+    <t>https://www.embla-carousel.com/examples/navigation/</t>
+  </si>
+  <si>
+    <t>https://igorlino.github.io/elevatezoom-plus/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,13 +87,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,9 +145,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -131,6 +209,627 @@
         <a:xfrm>
           <a:off x="3048000" y="1524000"/>
           <a:ext cx="12142857" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>73981</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCE682A-AAD0-4799-B7D1-B6165E3C8C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1143000"/>
+          <a:ext cx="17752381" cy="9171428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>465524</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>170571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B51012-EED9-4150-9B56-7F0BEB0C32BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="11239500"/>
+          <a:ext cx="9609524" cy="7028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>198095</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>8500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20080698-5EC0-4502-A510-40E3DC93284A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="20907375"/>
+          <a:ext cx="15438095" cy="8200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36495</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>56071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0FE80E-C677-4E76-867D-A52303C6E620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="30575250"/>
+          <a:ext cx="12838095" cy="8628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>331124</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>170405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6ADDCB-240A-43B6-85C8-7B06AD9520A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="40052625"/>
+          <a:ext cx="18009524" cy="8361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>493409</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>189405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061C03CF-0B82-46C1-98F9-0C01E19DACF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="50101500"/>
+          <a:ext cx="15123809" cy="8761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>559771</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>160702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF77500-56C5-4A71-BEF5-24E4B39D96E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="60245625"/>
+          <a:ext cx="17628571" cy="9780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>493562</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>103738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F301E277-E4D4-4D04-9FD2-A29D00CDC799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="71151750"/>
+          <a:ext cx="13904762" cy="8295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>189214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D5D51D-116D-4797-B1B9-D8C7B7C1F7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="80676750"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>322138</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>113334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1108FB3-CECA-4D72-8245-A5DC414CC3A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="83924775"/>
+          <a:ext cx="13695238" cy="7723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>445562</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>65524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E3EC3F-374B-4E0B-826A-BEEB1FD1C0CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="92678250"/>
+          <a:ext cx="16904762" cy="9209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>539</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>369219</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>94071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2F4A97-E16F-4C77-AFD9-DD0F1977AEAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="103536750"/>
+          <a:ext cx="18047619" cy="9428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>598</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>398019</xdr:colOff>
+      <xdr:row>646</xdr:row>
+      <xdr:rowOff>8381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C222352-A8BB-4CFA-9899-1BF1372273F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="114776250"/>
+          <a:ext cx="16247619" cy="9152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>653</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>122057</xdr:colOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>37000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCF4F09-D52B-4F19-B2C6-BD23AE9F39B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="125253750"/>
+          <a:ext cx="14142857" cy="8800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,4 +1129,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62560F1-2CE8-47E2-80C1-99E97E9E07FF}">
+  <dimension ref="D58:N650"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="C661" sqref="C661"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="107" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="157" spans="4:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+    </row>
+    <row r="207" spans="4:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D207" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+    </row>
+    <row r="259" spans="4:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D259" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
+      <c r="N259" s="2"/>
+    </row>
+    <row r="311" spans="4:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="3"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+    </row>
+    <row r="367" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D367" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" s="3"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+      <c r="I367" s="3"/>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D418" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D481" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D536" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E598" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E650" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F650" s="5"/>
+      <c r="G650" s="5"/>
+      <c r="H650" s="5"/>
+      <c r="I650" s="5"/>
+      <c r="J650" s="5"/>
+      <c r="K650" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D207" r:id="rId1" xr:uid="{4A3B91F9-5FE2-4671-A5E7-CDB7F11C4B86}"/>
+    <hyperlink ref="D259" r:id="rId2" xr:uid="{2057AB87-63B2-4CFD-99A8-B33AA8D678D5}"/>
+    <hyperlink ref="D311" r:id="rId3" xr:uid="{14719CC2-D737-42C2-A5E4-CBD094E5E110}"/>
+    <hyperlink ref="D418" r:id="rId4" xr:uid="{5E9F322E-96A7-43BA-80A7-293F1D9D6046}"/>
+    <hyperlink ref="E598" r:id="rId5" xr:uid="{4A403617-A85F-4BE5-9469-09D12BF1FC0D}"/>
+    <hyperlink ref="E650" r:id="rId6" xr:uid="{D4D87ABD-15DB-42A9-BCFC-FCB755CA6D1A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+</worksheet>
 </file>